--- a/Entregaveis/1.RepositorioSemantico/Alergias/members_allergyIntoleranceSnomedCtIpsFreeSetTMP-qpi9lt_20230807.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/members_allergyIntoleranceSnomedCtIpsFreeSetTMP-qpi9lt_20230807.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Library/Mobile Documents/com~apple~CloudDocs/REFSETS SIRIO/IPS/ALLERGYINTOLERANCE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Alergias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06DC6053-296D-854C-93FA-94D86DD5CF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93649FB-F20A-EC49-8212-B2FFD1BA4B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="4900" windowWidth="25840" windowHeight="14240"/>
+    <workbookView xWindow="4400" yWindow="4400" windowWidth="25840" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="members_allergyIntoleranceSnome" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="606">
   <si>
     <t>id</t>
   </si>
@@ -1796,12 +1796,54 @@
   </si>
   <si>
     <t>Soybean protein</t>
+  </si>
+  <si>
+    <t>2221000221107</t>
+  </si>
+  <si>
+    <t>2171000221104</t>
+  </si>
+  <si>
+    <t>1981000221108</t>
+  </si>
+  <si>
+    <t>1801000221105</t>
+  </si>
+  <si>
+    <t>1181000221105</t>
+  </si>
+  <si>
+    <t>1131000221109</t>
+  </si>
+  <si>
+    <t>442461000124102</t>
+  </si>
+  <si>
+    <t>1121000221106</t>
+  </si>
+  <si>
+    <t>1101000221104</t>
+  </si>
+  <si>
+    <t>1081000221109</t>
+  </si>
+  <si>
+    <t>1051000221104</t>
+  </si>
+  <si>
+    <t>1031000221108</t>
+  </si>
+  <si>
+    <t>1011000221100</t>
+  </si>
+  <si>
+    <t>1001000221103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2279,53 +2321,54 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2341,7 +2384,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2636,12 +2679,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2659,7 +2708,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -2679,8 +2728,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>2221000221107</v>
+      <c r="F2" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -2699,8 +2748,8 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>2171000221104</v>
+      <c r="F3" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -2719,8 +2768,8 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
-        <v>1981000221108</v>
+      <c r="F4" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -2739,8 +2788,8 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>1801000221105</v>
+      <c r="F5" s="2" t="s">
+        <v>595</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -2759,8 +2808,8 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>1181000221105</v>
+      <c r="F6" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2779,8 +2828,8 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7">
-        <v>1131000221109</v>
+      <c r="F7" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -2799,8 +2848,8 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
-        <v>442461000124102</v>
+      <c r="F8" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -2819,8 +2868,8 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9">
-        <v>1121000221106</v>
+      <c r="F9" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -2839,8 +2888,8 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>1101000221104</v>
+      <c r="F10" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -2859,8 +2908,8 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F11">
-        <v>1081000221109</v>
+      <c r="F11" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
@@ -2879,8 +2928,8 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
-        <v>1051000221104</v>
+      <c r="F12" s="2" t="s">
+        <v>602</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -2899,8 +2948,8 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="F13">
-        <v>1031000221108</v>
+      <c r="F13" s="2" t="s">
+        <v>603</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -2919,8 +2968,8 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F14">
-        <v>1011000221100</v>
+      <c r="F14" s="2" t="s">
+        <v>604</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -2939,8 +2988,8 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="F15">
-        <v>1001000221103</v>
+      <c r="F15" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2959,7 +3008,7 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>1137358000</v>
       </c>
       <c r="G16" t="s">
@@ -2979,7 +3028,7 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>1119254000</v>
       </c>
       <c r="G17" t="s">
@@ -2999,7 +3048,7 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>1052328007</v>
       </c>
       <c r="G18" t="s">
@@ -3019,7 +3068,7 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>1003736004</v>
       </c>
       <c r="G19" t="s">
@@ -3039,7 +3088,7 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>264295007</v>
       </c>
       <c r="G20" t="s">
@@ -3059,7 +3108,7 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>264287008</v>
       </c>
       <c r="G21" t="s">
@@ -3079,7 +3128,7 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>261243003</v>
       </c>
       <c r="G22" t="s">
@@ -3099,7 +3148,7 @@
       <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>260179008</v>
       </c>
       <c r="G23" t="s">
@@ -3119,7 +3168,7 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>260177005</v>
       </c>
       <c r="G24" t="s">
@@ -3139,7 +3188,7 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>260176001</v>
       </c>
       <c r="G25" t="s">
@@ -3159,7 +3208,7 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>260167008</v>
       </c>
       <c r="G26" t="s">
@@ -3179,7 +3228,7 @@
       <c r="E27" t="s">
         <v>8</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>260156007</v>
       </c>
       <c r="G27" t="s">
@@ -3199,7 +3248,7 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>260154005</v>
       </c>
       <c r="G28" t="s">
@@ -3219,7 +3268,7 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>260153004</v>
       </c>
       <c r="G29" t="s">
@@ -3239,7 +3288,7 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>260152009</v>
       </c>
       <c r="G30" t="s">
@@ -3259,7 +3308,7 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>260126003</v>
       </c>
       <c r="G31" t="s">
@@ -3279,7 +3328,7 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>260118006</v>
       </c>
       <c r="G32" t="s">
@@ -3299,7 +3348,7 @@
       <c r="E33" t="s">
         <v>8</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>260108001</v>
       </c>
       <c r="G33" t="s">
@@ -3319,7 +3368,7 @@
       <c r="E34" t="s">
         <v>8</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>256504004</v>
       </c>
       <c r="G34" t="s">
@@ -3339,7 +3388,7 @@
       <c r="E35" t="s">
         <v>8</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>256443002</v>
       </c>
       <c r="G35" t="s">
@@ -3359,7 +3408,7 @@
       <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>256440004</v>
       </c>
       <c r="G36" t="s">
@@ -3379,7 +3428,7 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>256435007</v>
       </c>
       <c r="G37" t="s">
@@ -3399,7 +3448,7 @@
       <c r="E38" t="s">
         <v>8</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>256419000</v>
       </c>
       <c r="G38" t="s">
@@ -3419,7 +3468,7 @@
       <c r="E39" t="s">
         <v>8</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>256417003</v>
       </c>
       <c r="G39" t="s">
@@ -3439,7 +3488,7 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>256355007</v>
       </c>
       <c r="G40" t="s">
@@ -3459,7 +3508,7 @@
       <c r="E41" t="s">
         <v>8</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>256353000</v>
       </c>
       <c r="G41" t="s">
@@ -3479,7 +3528,7 @@
       <c r="E42" t="s">
         <v>8</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>256352005</v>
       </c>
       <c r="G42" t="s">
@@ -3499,7 +3548,7 @@
       <c r="E43" t="s">
         <v>8</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>256350002</v>
       </c>
       <c r="G43" t="s">
@@ -3519,7 +3568,7 @@
       <c r="E44" t="s">
         <v>8</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>256326004</v>
       </c>
       <c r="G44" t="s">
@@ -3539,7 +3588,7 @@
       <c r="E45" t="s">
         <v>8</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <v>256319004</v>
       </c>
       <c r="G45" t="s">
@@ -3559,7 +3608,7 @@
       <c r="E46" t="s">
         <v>8</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <v>256313003</v>
       </c>
       <c r="G46" t="s">
@@ -3579,7 +3628,7 @@
       <c r="E47" t="s">
         <v>8</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>256307007</v>
       </c>
       <c r="G47" t="s">
@@ -3599,7 +3648,7 @@
       <c r="E48" t="s">
         <v>8</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <v>256306003</v>
       </c>
       <c r="G48" t="s">
@@ -3619,7 +3668,7 @@
       <c r="E49" t="s">
         <v>8</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>256305004</v>
       </c>
       <c r="G49" t="s">
@@ -3639,7 +3688,7 @@
       <c r="E50" t="s">
         <v>8</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>256303006</v>
       </c>
       <c r="G50" t="s">
@@ -3659,7 +3708,7 @@
       <c r="E51" t="s">
         <v>8</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>256292005</v>
       </c>
       <c r="G51" t="s">
@@ -3679,7 +3728,7 @@
       <c r="E52" t="s">
         <v>8</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <v>256277009</v>
       </c>
       <c r="G52" t="s">
@@ -3699,7 +3748,7 @@
       <c r="E53" t="s">
         <v>8</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <v>256260009</v>
       </c>
       <c r="G53" t="s">
@@ -3719,7 +3768,7 @@
       <c r="E54" t="s">
         <v>8</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <v>256259004</v>
       </c>
       <c r="G54" t="s">
@@ -3739,7 +3788,7 @@
       <c r="E55" t="s">
         <v>8</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>255667006</v>
       </c>
       <c r="G55" t="s">
@@ -3759,7 +3808,7 @@
       <c r="E56" t="s">
         <v>8</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <v>255640000</v>
       </c>
       <c r="G56" t="s">
@@ -3779,7 +3828,7 @@
       <c r="E57" t="s">
         <v>8</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>255620007</v>
       </c>
       <c r="G57" t="s">
@@ -3799,7 +3848,7 @@
       <c r="E58" t="s">
         <v>8</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>235719002</v>
       </c>
       <c r="G58" t="s">
@@ -3819,7 +3868,7 @@
       <c r="E59" t="s">
         <v>8</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>232350006</v>
       </c>
       <c r="G59" t="s">
@@ -3839,7 +3888,7 @@
       <c r="E60" t="s">
         <v>8</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <v>230034002</v>
       </c>
       <c r="G60" t="s">
@@ -3859,7 +3908,7 @@
       <c r="E61" t="s">
         <v>8</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>227538001</v>
       </c>
       <c r="G61" t="s">
@@ -3879,7 +3928,7 @@
       <c r="E62" t="s">
         <v>8</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>227512001</v>
       </c>
       <c r="G62" t="s">
@@ -3899,7 +3948,7 @@
       <c r="E63" t="s">
         <v>8</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <v>227511008</v>
       </c>
       <c r="G63" t="s">
@@ -3919,7 +3968,7 @@
       <c r="E64" t="s">
         <v>8</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
         <v>227493005</v>
       </c>
       <c r="G64" t="s">
@@ -3939,7 +3988,7 @@
       <c r="E65" t="s">
         <v>8</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <v>227444000</v>
       </c>
       <c r="G65" t="s">
@@ -3959,7 +4008,7 @@
       <c r="E66" t="s">
         <v>8</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <v>227425007</v>
       </c>
       <c r="G66" t="s">
@@ -3979,7 +4028,7 @@
       <c r="E67" t="s">
         <v>8</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="2">
         <v>227408005</v>
       </c>
       <c r="G67" t="s">
@@ -3999,7 +4048,7 @@
       <c r="E68" t="s">
         <v>8</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <v>227400003</v>
       </c>
       <c r="G68" t="s">
@@ -4019,7 +4068,7 @@
       <c r="E69" t="s">
         <v>8</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <v>227395004</v>
       </c>
       <c r="G69" t="s">
@@ -4039,7 +4088,7 @@
       <c r="E70" t="s">
         <v>8</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <v>227389000</v>
       </c>
       <c r="G70" t="s">
@@ -4059,7 +4108,7 @@
       <c r="E71" t="s">
         <v>8</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <v>227388008</v>
       </c>
       <c r="G71" t="s">
@@ -4079,7 +4128,7 @@
       <c r="E72" t="s">
         <v>8</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <v>227374009</v>
       </c>
       <c r="G72" t="s">
@@ -4099,7 +4148,7 @@
       <c r="E73" t="s">
         <v>8</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <v>227313005</v>
       </c>
       <c r="G73" t="s">
@@ -4119,7 +4168,7 @@
       <c r="E74" t="s">
         <v>8</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
         <v>227150003</v>
       </c>
       <c r="G74" t="s">
@@ -4139,7 +4188,7 @@
       <c r="E75" t="s">
         <v>8</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <v>227144008</v>
       </c>
       <c r="G75" t="s">
@@ -4159,7 +4208,7 @@
       <c r="E76" t="s">
         <v>8</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
         <v>226934003</v>
       </c>
       <c r="G76" t="s">
@@ -4179,7 +4228,7 @@
       <c r="E77" t="s">
         <v>8</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="2">
         <v>226915003</v>
       </c>
       <c r="G77" t="s">
@@ -4199,7 +4248,7 @@
       <c r="E78" t="s">
         <v>8</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="2">
         <v>226491003</v>
       </c>
       <c r="G78" t="s">
@@ -4219,7 +4268,7 @@
       <c r="E79" t="s">
         <v>8</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <v>128489003</v>
       </c>
       <c r="G79" t="s">
@@ -4239,7 +4288,7 @@
       <c r="E80" t="s">
         <v>8</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
         <v>128488006</v>
       </c>
       <c r="G80" t="s">
@@ -4259,7 +4308,7 @@
       <c r="E81" t="s">
         <v>8</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
         <v>119417004</v>
       </c>
       <c r="G81" t="s">
@@ -4279,7 +4328,7 @@
       <c r="E82" t="s">
         <v>8</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <v>116637007</v>
       </c>
       <c r="G82" t="s">
@@ -4299,7 +4348,7 @@
       <c r="E83" t="s">
         <v>8</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
         <v>116560007</v>
       </c>
       <c r="G83" t="s">
@@ -4319,7 +4368,7 @@
       <c r="E84" t="s">
         <v>8</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="2">
         <v>116549003</v>
       </c>
       <c r="G84" t="s">
@@ -4339,7 +4388,7 @@
       <c r="E85" t="s">
         <v>8</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="2">
         <v>115589000</v>
       </c>
       <c r="G85" t="s">
@@ -4359,7 +4408,7 @@
       <c r="E86" t="s">
         <v>8</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <v>111088007</v>
       </c>
       <c r="G86" t="s">
@@ -4379,7 +4428,7 @@
       <c r="E87" t="s">
         <v>8</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="2">
         <v>102264005</v>
       </c>
       <c r="G87" t="s">
@@ -4399,7 +4448,7 @@
       <c r="E88" t="s">
         <v>8</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="2">
         <v>102263004</v>
       </c>
       <c r="G88" t="s">
@@ -4419,7 +4468,7 @@
       <c r="E89" t="s">
         <v>8</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="2">
         <v>102262009</v>
       </c>
       <c r="G89" t="s">
@@ -4439,7 +4488,7 @@
       <c r="E90" t="s">
         <v>8</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="2">
         <v>102261002</v>
       </c>
       <c r="G90" t="s">
@@ -4459,7 +4508,7 @@
       <c r="E91" t="s">
         <v>8</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="2">
         <v>102259006</v>
       </c>
       <c r="G91" t="s">
@@ -4479,7 +4528,7 @@
       <c r="E92" t="s">
         <v>8</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <v>26159005</v>
       </c>
       <c r="G92" t="s">
@@ -4499,7 +4548,7 @@
       <c r="E93" t="s">
         <v>8</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>23182003</v>
       </c>
       <c r="G93" t="s">
@@ -4519,7 +4568,7 @@
       <c r="E94" t="s">
         <v>8</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>14402002</v>
       </c>
       <c r="G94" t="s">
@@ -4539,7 +4588,7 @@
       <c r="E95" t="s">
         <v>8</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <v>13652007</v>
       </c>
       <c r="G95" t="s">
@@ -4559,7 +4608,7 @@
       <c r="E96" t="s">
         <v>8</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <v>13577000</v>
       </c>
       <c r="G96" t="s">
@@ -4579,7 +4628,7 @@
       <c r="E97" t="s">
         <v>8</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <v>12510000</v>
       </c>
       <c r="G97" t="s">
@@ -4599,7 +4648,7 @@
       <c r="E98" t="s">
         <v>8</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
         <v>12503006</v>
       </c>
       <c r="G98" t="s">
@@ -4619,7 +4668,7 @@
       <c r="E99" t="s">
         <v>8</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="2">
         <v>11894001</v>
       </c>
       <c r="G99" t="s">
@@ -4639,7 +4688,7 @@
       <c r="E100" t="s">
         <v>8</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="2">
         <v>11526002</v>
       </c>
       <c r="G100" t="s">
@@ -4659,7 +4708,7 @@
       <c r="E101" t="s">
         <v>8</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="2">
         <v>2309006</v>
       </c>
       <c r="G101" t="s">
@@ -4679,7 +4728,7 @@
       <c r="E102" t="s">
         <v>8</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="2">
         <v>1985008</v>
       </c>
       <c r="G102" t="s">
@@ -4699,7 +4748,7 @@
       <c r="E103" t="s">
         <v>8</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="2">
         <v>601000221108</v>
       </c>
       <c r="G103" t="s">
@@ -4719,7 +4768,7 @@
       <c r="E104" t="s">
         <v>8</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="2">
         <v>735047000</v>
       </c>
       <c r="G104" t="s">
@@ -4739,7 +4788,7 @@
       <c r="E105" t="s">
         <v>8</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="2">
         <v>735046009</v>
       </c>
       <c r="G105" t="s">
@@ -4759,7 +4808,7 @@
       <c r="E106" t="s">
         <v>8</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="2">
         <v>735045008</v>
       </c>
       <c r="G106" t="s">
@@ -4779,7 +4828,7 @@
       <c r="E107" t="s">
         <v>8</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="2">
         <v>735030001</v>
       </c>
       <c r="G107" t="s">
@@ -4799,7 +4848,7 @@
       <c r="E108" t="s">
         <v>8</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="2">
         <v>735029006</v>
       </c>
       <c r="G108" t="s">
@@ -4819,7 +4868,7 @@
       <c r="E109" t="s">
         <v>8</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="2">
         <v>735006003</v>
       </c>
       <c r="G109" t="s">
@@ -4839,7 +4888,7 @@
       <c r="E110" t="s">
         <v>8</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="2">
         <v>734881000</v>
       </c>
       <c r="G110" t="s">
@@ -4859,7 +4908,7 @@
       <c r="E111" t="s">
         <v>8</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="2">
         <v>726764009</v>
       </c>
       <c r="G111" t="s">
@@ -4879,7 +4928,7 @@
       <c r="E112" t="s">
         <v>8</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="2">
         <v>726759005</v>
       </c>
       <c r="G112" t="s">
@@ -4899,7 +4948,7 @@
       <c r="E113" t="s">
         <v>8</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="2">
         <v>710943006</v>
       </c>
       <c r="G113" t="s">
@@ -4919,7 +4968,7 @@
       <c r="E114" t="s">
         <v>8</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="2">
         <v>710183004</v>
       </c>
       <c r="G114" t="s">
@@ -4939,7 +4988,7 @@
       <c r="E115" t="s">
         <v>8</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="2">
         <v>710179004</v>
       </c>
       <c r="G115" t="s">
@@ -4959,7 +5008,7 @@
       <c r="E116" t="s">
         <v>8</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="2">
         <v>707239006</v>
       </c>
       <c r="G116" t="s">
@@ -4979,7 +5028,7 @@
       <c r="E117" t="s">
         <v>8</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="2">
         <v>430503006</v>
       </c>
       <c r="G117" t="s">
@@ -4999,7 +5048,7 @@
       <c r="E118" t="s">
         <v>8</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="2">
         <v>428601009</v>
       </c>
       <c r="G118" t="s">
@@ -5019,7 +5068,7 @@
       <c r="E119" t="s">
         <v>8</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="2">
         <v>425620007</v>
       </c>
       <c r="G119" t="s">
@@ -5039,7 +5088,7 @@
       <c r="E120" t="s">
         <v>8</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="2">
         <v>421556008</v>
       </c>
       <c r="G120" t="s">
@@ -5059,7 +5108,7 @@
       <c r="E121" t="s">
         <v>8</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="2">
         <v>419633007</v>
       </c>
       <c r="G121" t="s">
@@ -5079,7 +5128,7 @@
       <c r="E122" t="s">
         <v>8</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="2">
         <v>419604006</v>
       </c>
       <c r="G122" t="s">
@@ -5099,7 +5148,7 @@
       <c r="E123" t="s">
         <v>8</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="2">
         <v>419511003</v>
       </c>
       <c r="G123" t="s">
@@ -5119,7 +5168,7 @@
       <c r="E124" t="s">
         <v>8</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="2">
         <v>419420009</v>
       </c>
       <c r="G124" t="s">
@@ -5139,7 +5188,7 @@
       <c r="E125" t="s">
         <v>8</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="2">
         <v>419199007</v>
       </c>
       <c r="G125" t="s">
@@ -5159,7 +5208,7 @@
       <c r="E126" t="s">
         <v>8</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="2">
         <v>418920007</v>
       </c>
       <c r="G126" t="s">
@@ -5179,7 +5228,7 @@
       <c r="E127" t="s">
         <v>8</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="2">
         <v>418794003</v>
       </c>
       <c r="G127" t="s">
@@ -5199,7 +5248,7 @@
       <c r="E128" t="s">
         <v>8</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="2">
         <v>418785009</v>
       </c>
       <c r="G128" t="s">
@@ -5219,7 +5268,7 @@
       <c r="E129" t="s">
         <v>8</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="2">
         <v>418504009</v>
       </c>
       <c r="G129" t="s">
@@ -5239,7 +5288,7 @@
       <c r="E130" t="s">
         <v>8</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="2">
         <v>418490008</v>
       </c>
       <c r="G130" t="s">
@@ -5259,7 +5308,7 @@
       <c r="E131" t="s">
         <v>8</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="2">
         <v>418471000</v>
       </c>
       <c r="G131" t="s">
@@ -5279,7 +5328,7 @@
       <c r="E132" t="s">
         <v>8</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="2">
         <v>418268006</v>
       </c>
       <c r="G132" t="s">
@@ -5299,7 +5348,7 @@
       <c r="E133" t="s">
         <v>8</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="2">
         <v>418266005</v>
       </c>
       <c r="G133" t="s">
@@ -5319,7 +5368,7 @@
       <c r="E134" t="s">
         <v>8</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="2">
         <v>416098002</v>
       </c>
       <c r="G134" t="s">
@@ -5339,7 +5388,7 @@
       <c r="E135" t="s">
         <v>8</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="2">
         <v>415710007</v>
       </c>
       <c r="G135" t="s">
@@ -5359,7 +5408,7 @@
       <c r="E136" t="s">
         <v>8</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="2">
         <v>414285001</v>
       </c>
       <c r="G136" t="s">
@@ -5379,7 +5428,7 @@
       <c r="E137" t="s">
         <v>8</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="2">
         <v>412357001</v>
       </c>
       <c r="G137" t="s">
@@ -5399,7 +5448,7 @@
       <c r="E138" t="s">
         <v>8</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="2">
         <v>412161004</v>
       </c>
       <c r="G138" t="s">
@@ -5419,7 +5468,7 @@
       <c r="E139" t="s">
         <v>8</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="2">
         <v>412156001</v>
       </c>
       <c r="G139" t="s">
@@ -5439,7 +5488,7 @@
       <c r="E140" t="s">
         <v>8</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="2">
         <v>412153009</v>
       </c>
       <c r="G140" t="s">
@@ -5459,7 +5508,7 @@
       <c r="E141" t="s">
         <v>8</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="2">
         <v>412150007</v>
       </c>
       <c r="G141" t="s">
@@ -5479,7 +5528,7 @@
       <c r="E142" t="s">
         <v>8</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="2">
         <v>412145001</v>
       </c>
       <c r="G142" t="s">
@@ -5499,7 +5548,7 @@
       <c r="E143" t="s">
         <v>8</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="2">
         <v>412071004</v>
       </c>
       <c r="G143" t="s">
@@ -5519,7 +5568,7 @@
       <c r="E144" t="s">
         <v>8</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="2">
         <v>412070003</v>
       </c>
       <c r="G144" t="s">
@@ -5539,7 +5588,7 @@
       <c r="E145" t="s">
         <v>8</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="2">
         <v>412068007</v>
       </c>
       <c r="G145" t="s">
@@ -5559,7 +5608,7 @@
       <c r="E146" t="s">
         <v>8</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="2">
         <v>412061001</v>
       </c>
       <c r="G146" t="s">
@@ -5579,7 +5628,7 @@
       <c r="E147" t="s">
         <v>8</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="2">
         <v>410853002</v>
       </c>
       <c r="G147" t="s">
@@ -5599,7 +5648,7 @@
       <c r="E148" t="s">
         <v>8</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="2">
         <v>409568008</v>
       </c>
       <c r="G148" t="s">
@@ -5619,7 +5668,7 @@
       <c r="E149" t="s">
         <v>8</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="2">
         <v>406774009</v>
       </c>
       <c r="G149" t="s">
@@ -5639,7 +5688,7 @@
       <c r="E150" t="s">
         <v>8</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="2">
         <v>396031000</v>
       </c>
       <c r="G150" t="s">
@@ -5659,7 +5708,7 @@
       <c r="E151" t="s">
         <v>8</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="2">
         <v>391737006</v>
       </c>
       <c r="G151" t="s">
@@ -5679,7 +5728,7 @@
       <c r="E152" t="s">
         <v>8</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="2">
         <v>387398009</v>
       </c>
       <c r="G152" t="s">
@@ -5699,7 +5748,7 @@
       <c r="E153" t="s">
         <v>8</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="2">
         <v>387293003</v>
       </c>
       <c r="G153" t="s">
@@ -5719,7 +5768,7 @@
       <c r="E154" t="s">
         <v>8</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="2">
         <v>386936005</v>
       </c>
       <c r="G154" t="s">
@@ -5739,7 +5788,7 @@
       <c r="E155" t="s">
         <v>8</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="2">
         <v>346469000</v>
       </c>
       <c r="G155" t="s">
@@ -5759,7 +5808,7 @@
       <c r="E156" t="s">
         <v>8</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="2">
         <v>346468008</v>
       </c>
       <c r="G156" t="s">
@@ -5779,7 +5828,7 @@
       <c r="E157" t="s">
         <v>8</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="2">
         <v>346467003</v>
       </c>
       <c r="G157" t="s">
@@ -5799,7 +5848,7 @@
       <c r="E158" t="s">
         <v>8</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="2">
         <v>346405008</v>
       </c>
       <c r="G158" t="s">
@@ -5819,7 +5868,7 @@
       <c r="E159" t="s">
         <v>8</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="2">
         <v>346364006</v>
       </c>
       <c r="G159" t="s">
@@ -5839,7 +5888,7 @@
       <c r="E160" t="s">
         <v>8</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="2">
         <v>346313005</v>
       </c>
       <c r="G160" t="s">
@@ -5859,7 +5908,7 @@
       <c r="E161" t="s">
         <v>8</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="2">
         <v>320835005</v>
       </c>
       <c r="G161" t="s">
@@ -5879,7 +5928,7 @@
       <c r="E162" t="s">
         <v>8</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="2">
         <v>311846002</v>
       </c>
       <c r="G162" t="s">
@@ -5899,7 +5948,7 @@
       <c r="E163" t="s">
         <v>8</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="2">
         <v>303315009</v>
       </c>
       <c r="G163" t="s">
@@ -5919,7 +5968,7 @@
       <c r="E164" t="s">
         <v>8</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="2">
         <v>303314008</v>
       </c>
       <c r="G164" t="s">
@@ -5939,7 +5988,7 @@
       <c r="E165" t="s">
         <v>8</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="2">
         <v>303300008</v>
       </c>
       <c r="G165" t="s">
@@ -5959,7 +6008,7 @@
       <c r="E166" t="s">
         <v>8</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="2">
         <v>289949002</v>
       </c>
       <c r="G166" t="s">
@@ -5979,7 +6028,7 @@
       <c r="E167" t="s">
         <v>8</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="2">
         <v>289122001</v>
       </c>
       <c r="G167" t="s">
@@ -5999,7 +6048,7 @@
       <c r="E168" t="s">
         <v>8</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="2">
         <v>288328004</v>
       </c>
       <c r="G168" t="s">
@@ -6019,7 +6068,7 @@
       <c r="E169" t="s">
         <v>8</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="2">
         <v>280939008</v>
       </c>
       <c r="G169" t="s">
@@ -6039,7 +6088,7 @@
       <c r="E170" t="s">
         <v>8</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="2">
         <v>278840001</v>
       </c>
       <c r="G170" t="s">
@@ -6059,7 +6108,7 @@
       <c r="E171" t="s">
         <v>8</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="2">
         <v>276310004</v>
       </c>
       <c r="G171" t="s">
@@ -6079,7 +6128,7 @@
       <c r="E172" t="s">
         <v>8</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="2">
         <v>264337003</v>
       </c>
       <c r="G172" t="s">
@@ -6099,7 +6148,7 @@
       <c r="E173" t="s">
         <v>8</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="2">
         <v>264331002</v>
       </c>
       <c r="G173" t="s">
@@ -6119,7 +6168,7 @@
       <c r="E174" t="s">
         <v>8</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="2">
         <v>72511004</v>
       </c>
       <c r="G174" t="s">
@@ -6139,7 +6188,7 @@
       <c r="E175" t="s">
         <v>8</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="2">
         <v>67324005</v>
       </c>
       <c r="G175" t="s">
@@ -6159,7 +6208,7 @@
       <c r="E176" t="s">
         <v>8</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="2">
         <v>66925006</v>
       </c>
       <c r="G176" t="s">
@@ -6179,7 +6228,7 @@
       <c r="E177" t="s">
         <v>8</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="2">
         <v>63766005</v>
       </c>
       <c r="G177" t="s">
@@ -6199,7 +6248,7 @@
       <c r="E178" t="s">
         <v>8</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="2">
         <v>63338004</v>
       </c>
       <c r="G178" t="s">
@@ -6219,7 +6268,7 @@
       <c r="E179" t="s">
         <v>8</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="2">
         <v>61789006</v>
       </c>
       <c r="G179" t="s">
@@ -6239,7 +6288,7 @@
       <c r="E180" t="s">
         <v>8</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="2">
         <v>59545008</v>
       </c>
       <c r="G180" t="s">
@@ -6259,7 +6308,7 @@
       <c r="E181" t="s">
         <v>8</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="2">
         <v>59533004</v>
       </c>
       <c r="G181" t="s">
@@ -6279,7 +6328,7 @@
       <c r="E182" t="s">
         <v>8</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="2">
         <v>59351004</v>
       </c>
       <c r="G182" t="s">
@@ -6299,7 +6348,7 @@
       <c r="E183" t="s">
         <v>8</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="2">
         <v>59037007</v>
       </c>
       <c r="G183" t="s">
@@ -6319,7 +6368,7 @@
       <c r="E184" t="s">
         <v>8</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="2">
         <v>57720001</v>
       </c>
       <c r="G184" t="s">
@@ -6339,7 +6388,7 @@
       <c r="E185" t="s">
         <v>8</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="2">
         <v>57126000</v>
       </c>
       <c r="G185" t="s">
@@ -6359,7 +6408,7 @@
       <c r="E186" t="s">
         <v>8</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="2">
         <v>52454007</v>
       </c>
       <c r="G186" t="s">
@@ -6379,7 +6428,7 @@
       <c r="E187" t="s">
         <v>8</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="2">
         <v>51905005</v>
       </c>
       <c r="G187" t="s">
@@ -6399,7 +6448,7 @@
       <c r="E188" t="s">
         <v>8</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="2">
         <v>51420009</v>
       </c>
       <c r="G188" t="s">
@@ -6419,7 +6468,7 @@
       <c r="E189" t="s">
         <v>8</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="2">
         <v>47703008</v>
       </c>
       <c r="G189" t="s">
@@ -6439,7 +6488,7 @@
       <c r="E190" t="s">
         <v>8</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="2">
         <v>44027008</v>
       </c>
       <c r="G190" t="s">
@@ -6459,7 +6508,7 @@
       <c r="E191" t="s">
         <v>8</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="2">
         <v>43735007</v>
       </c>
       <c r="G191" t="s">
@@ -6479,7 +6528,7 @@
       <c r="E192" t="s">
         <v>8</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="2">
         <v>43230003</v>
       </c>
       <c r="G192" t="s">
@@ -6499,7 +6548,7 @@
       <c r="E193" t="s">
         <v>8</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="2">
         <v>42416001</v>
       </c>
       <c r="G193" t="s">
@@ -6519,7 +6568,7 @@
       <c r="E194" t="s">
         <v>8</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="2">
         <v>41967008</v>
       </c>
       <c r="G194" t="s">
@@ -6539,7 +6588,7 @@
       <c r="E195" t="s">
         <v>8</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="2">
         <v>37146000</v>
       </c>
       <c r="G195" t="s">
@@ -6559,7 +6608,7 @@
       <c r="E196" t="s">
         <v>8</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="2">
         <v>33396006</v>
       </c>
       <c r="G196" t="s">
@@ -6579,7 +6628,7 @@
       <c r="E197" t="s">
         <v>8</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="2">
         <v>33008008</v>
       </c>
       <c r="G197" t="s">
@@ -6599,7 +6648,7 @@
       <c r="E198" t="s">
         <v>8</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="2">
         <v>28647000</v>
       </c>
       <c r="G198" t="s">
@@ -6619,7 +6668,7 @@
       <c r="E199" t="s">
         <v>8</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="2">
         <v>28230009</v>
       </c>
       <c r="G199" t="s">
@@ -6639,7 +6688,7 @@
       <c r="E200" t="s">
         <v>8</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="2">
         <v>3829006</v>
       </c>
       <c r="G200" t="s">
@@ -6659,7 +6708,7 @@
       <c r="E201" t="s">
         <v>8</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="2">
         <v>2799001</v>
       </c>
       <c r="G201" t="s">
@@ -6679,7 +6728,7 @@
       <c r="E202" t="s">
         <v>8</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="2">
         <v>971000221109</v>
       </c>
       <c r="G202" t="s">
@@ -6699,7 +6748,7 @@
       <c r="E203" t="s">
         <v>8</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="2">
         <v>871921009</v>
       </c>
       <c r="G203" t="s">
@@ -6719,7 +6768,7 @@
       <c r="E204" t="s">
         <v>8</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="2">
         <v>871918007</v>
       </c>
       <c r="G204" t="s">
@@ -6739,7 +6788,7 @@
       <c r="E205" t="s">
         <v>8</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="2">
         <v>871908002</v>
       </c>
       <c r="G205" t="s">
@@ -6759,7 +6808,7 @@
       <c r="E206" t="s">
         <v>8</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="2">
         <v>871895005</v>
       </c>
       <c r="G206" t="s">
@@ -6779,7 +6828,7 @@
       <c r="E207" t="s">
         <v>8</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="2">
         <v>871889009</v>
       </c>
       <c r="G207" t="s">
@@ -6799,7 +6848,7 @@
       <c r="E208" t="s">
         <v>8</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="2">
         <v>871887006</v>
       </c>
       <c r="G208" t="s">
@@ -6819,7 +6868,7 @@
       <c r="E209" t="s">
         <v>8</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="2">
         <v>871878002</v>
       </c>
       <c r="G209" t="s">
@@ -6839,7 +6888,7 @@
       <c r="E210" t="s">
         <v>8</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="2">
         <v>871876003</v>
       </c>
       <c r="G210" t="s">
@@ -6859,7 +6908,7 @@
       <c r="E211" t="s">
         <v>8</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="2">
         <v>871875004</v>
       </c>
       <c r="G211" t="s">
@@ -6879,7 +6928,7 @@
       <c r="E212" t="s">
         <v>8</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="2">
         <v>871873006</v>
       </c>
       <c r="G212" t="s">
@@ -6899,7 +6948,7 @@
       <c r="E213" t="s">
         <v>8</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="2">
         <v>871871008</v>
       </c>
       <c r="G213" t="s">
@@ -6919,7 +6968,7 @@
       <c r="E214" t="s">
         <v>8</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="2">
         <v>871866001</v>
       </c>
       <c r="G214" t="s">
@@ -6939,7 +6988,7 @@
       <c r="E215" t="s">
         <v>8</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="2">
         <v>871839001</v>
       </c>
       <c r="G215" t="s">
@@ -6959,7 +7008,7 @@
       <c r="E216" t="s">
         <v>8</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="2">
         <v>871837004</v>
       </c>
       <c r="G216" t="s">
@@ -6979,7 +7028,7 @@
       <c r="E217" t="s">
         <v>8</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="2">
         <v>871831003</v>
       </c>
       <c r="G217" t="s">
@@ -6999,7 +7048,7 @@
       <c r="E218" t="s">
         <v>8</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="2">
         <v>871826000</v>
       </c>
       <c r="G218" t="s">
@@ -7019,7 +7068,7 @@
       <c r="E219" t="s">
         <v>8</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="2">
         <v>871806004</v>
       </c>
       <c r="G219" t="s">
@@ -7039,7 +7088,7 @@
       <c r="E220" t="s">
         <v>8</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="2">
         <v>871804001</v>
       </c>
       <c r="G220" t="s">
@@ -7059,7 +7108,7 @@
       <c r="E221" t="s">
         <v>8</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="2">
         <v>871803007</v>
       </c>
       <c r="G221" t="s">
@@ -7079,7 +7128,7 @@
       <c r="E222" t="s">
         <v>8</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="2">
         <v>871772009</v>
       </c>
       <c r="G222" t="s">
@@ -7099,7 +7148,7 @@
       <c r="E223" t="s">
         <v>8</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="2">
         <v>871768005</v>
       </c>
       <c r="G223" t="s">
@@ -7119,7 +7168,7 @@
       <c r="E224" t="s">
         <v>8</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="2">
         <v>871765008</v>
       </c>
       <c r="G224" t="s">
@@ -7139,7 +7188,7 @@
       <c r="E225" t="s">
         <v>8</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="2">
         <v>871759008</v>
       </c>
       <c r="G225" t="s">
@@ -7159,7 +7208,7 @@
       <c r="E226" t="s">
         <v>8</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="2">
         <v>871740006</v>
       </c>
       <c r="G226" t="s">
@@ -7179,7 +7228,7 @@
       <c r="E227" t="s">
         <v>8</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="2">
         <v>871738001</v>
       </c>
       <c r="G227" t="s">
@@ -7199,7 +7248,7 @@
       <c r="E228" t="s">
         <v>8</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="2">
         <v>871737006</v>
       </c>
       <c r="G228" t="s">
@@ -7219,7 +7268,7 @@
       <c r="E229" t="s">
         <v>8</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="2">
         <v>863911006</v>
       </c>
       <c r="G229" t="s">
@@ -7239,7 +7288,7 @@
       <c r="E230" t="s">
         <v>8</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="2">
         <v>840599008</v>
       </c>
       <c r="G230" t="s">
@@ -7259,7 +7308,7 @@
       <c r="E231" t="s">
         <v>8</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="2">
         <v>840549009</v>
       </c>
       <c r="G231" t="s">
@@ -7279,7 +7328,7 @@
       <c r="E232" t="s">
         <v>8</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="2">
         <v>840536004</v>
       </c>
       <c r="G232" t="s">
@@ -7299,7 +7348,7 @@
       <c r="E233" t="s">
         <v>8</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="2">
         <v>840535000</v>
       </c>
       <c r="G233" t="s">
@@ -7319,7 +7368,7 @@
       <c r="E234" t="s">
         <v>8</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="2">
         <v>836500008</v>
       </c>
       <c r="G234" t="s">
@@ -7339,7 +7388,7 @@
       <c r="E235" t="s">
         <v>8</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="2">
         <v>836498007</v>
       </c>
       <c r="G235" t="s">
@@ -7359,7 +7408,7 @@
       <c r="E236" t="s">
         <v>8</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="2">
         <v>836495005</v>
       </c>
       <c r="G236" t="s">
@@ -7379,7 +7428,7 @@
       <c r="E237" t="s">
         <v>8</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="2">
         <v>836403007</v>
       </c>
       <c r="G237" t="s">
@@ -7399,7 +7448,7 @@
       <c r="E238" t="s">
         <v>8</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="2">
         <v>836402002</v>
       </c>
       <c r="G238" t="s">
@@ -7419,7 +7468,7 @@
       <c r="E239" t="s">
         <v>8</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="2">
         <v>836401009</v>
       </c>
       <c r="G239" t="s">
@@ -7439,7 +7488,7 @@
       <c r="E240" t="s">
         <v>8</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="2">
         <v>836398006</v>
       </c>
       <c r="G240" t="s">
@@ -7459,7 +7508,7 @@
       <c r="E241" t="s">
         <v>8</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="2">
         <v>836397001</v>
       </c>
       <c r="G241" t="s">
@@ -7479,7 +7528,7 @@
       <c r="E242" t="s">
         <v>8</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="2">
         <v>836393002</v>
       </c>
       <c r="G242" t="s">
@@ -7499,7 +7548,7 @@
       <c r="E243" t="s">
         <v>8</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="2">
         <v>836390004</v>
       </c>
       <c r="G243" t="s">
@@ -7519,7 +7568,7 @@
       <c r="E244" t="s">
         <v>8</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="2">
         <v>836389008</v>
       </c>
       <c r="G244" t="s">
@@ -7539,7 +7588,7 @@
       <c r="E245" t="s">
         <v>8</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="2">
         <v>836388000</v>
       </c>
       <c r="G245" t="s">
@@ -7559,7 +7608,7 @@
       <c r="E246" t="s">
         <v>8</v>
       </c>
-      <c r="F246">
+      <c r="F246" s="2">
         <v>836387005</v>
       </c>
       <c r="G246" t="s">
@@ -7579,7 +7628,7 @@
       <c r="E247" t="s">
         <v>8</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="2">
         <v>836385002</v>
       </c>
       <c r="G247" t="s">
@@ -7599,7 +7648,7 @@
       <c r="E248" t="s">
         <v>8</v>
       </c>
-      <c r="F248">
+      <c r="F248" s="2">
         <v>836384003</v>
       </c>
       <c r="G248" t="s">
@@ -7619,7 +7668,7 @@
       <c r="E249" t="s">
         <v>8</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="2">
         <v>836383009</v>
       </c>
       <c r="G249" t="s">
@@ -7639,7 +7688,7 @@
       <c r="E250" t="s">
         <v>8</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="2">
         <v>836382004</v>
       </c>
       <c r="G250" t="s">
@@ -7659,7 +7708,7 @@
       <c r="E251" t="s">
         <v>8</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="2">
         <v>836381006</v>
       </c>
       <c r="G251" t="s">
@@ -7679,7 +7728,7 @@
       <c r="E252" t="s">
         <v>8</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="2">
         <v>836380007</v>
       </c>
       <c r="G252" t="s">
@@ -7699,7 +7748,7 @@
       <c r="E253" t="s">
         <v>8</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="2">
         <v>836379009</v>
       </c>
       <c r="G253" t="s">
@@ -7719,7 +7768,7 @@
       <c r="E254" t="s">
         <v>8</v>
       </c>
-      <c r="F254">
+      <c r="F254" s="2">
         <v>836378001</v>
       </c>
       <c r="G254" t="s">
@@ -7739,7 +7788,7 @@
       <c r="E255" t="s">
         <v>8</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="2">
         <v>836377006</v>
       </c>
       <c r="G255" t="s">
@@ -7759,7 +7808,7 @@
       <c r="E256" t="s">
         <v>8</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="2">
         <v>836375003</v>
       </c>
       <c r="G256" t="s">
@@ -7779,7 +7828,7 @@
       <c r="E257" t="s">
         <v>8</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="2">
         <v>836374004</v>
       </c>
       <c r="G257" t="s">
@@ -7799,7 +7848,7 @@
       <c r="E258" t="s">
         <v>8</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="2">
         <v>836369007</v>
       </c>
       <c r="G258" t="s">
@@ -7819,7 +7868,7 @@
       <c r="E259" t="s">
         <v>8</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="2">
         <v>836368004</v>
       </c>
       <c r="G259" t="s">
@@ -7839,7 +7888,7 @@
       <c r="E260" t="s">
         <v>8</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="2">
         <v>787859002</v>
       </c>
       <c r="G260" t="s">
@@ -7859,7 +7908,7 @@
       <c r="E261" t="s">
         <v>8</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="2">
         <v>782594005</v>
       </c>
       <c r="G261" t="s">
@@ -7879,7 +7928,7 @@
       <c r="E262" t="s">
         <v>8</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="2">
         <v>782197009</v>
       </c>
       <c r="G262" t="s">
@@ -7899,7 +7948,7 @@
       <c r="E263" t="s">
         <v>8</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="2">
         <v>777725002</v>
       </c>
       <c r="G263" t="s">
@@ -7919,7 +7968,7 @@
       <c r="E264" t="s">
         <v>8</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="2">
         <v>775641005</v>
       </c>
       <c r="G264" t="s">
@@ -7939,7 +7988,7 @@
       <c r="E265" t="s">
         <v>8</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="2">
         <v>774702006</v>
       </c>
       <c r="G265" t="s">
@@ -7959,7 +8008,7 @@
       <c r="E266" t="s">
         <v>8</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="2">
         <v>774618008</v>
       </c>
       <c r="G266" t="s">
@@ -7979,7 +8028,7 @@
       <c r="E267" t="s">
         <v>8</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="2">
         <v>772245002</v>
       </c>
       <c r="G267" t="s">
@@ -7999,7 +8048,7 @@
       <c r="E268" t="s">
         <v>8</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="2">
         <v>767406000</v>
       </c>
       <c r="G268" t="s">
@@ -8019,7 +8068,7 @@
       <c r="E269" t="s">
         <v>8</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="2">
         <v>762952008</v>
       </c>
       <c r="G269" t="s">
@@ -8039,7 +8088,7 @@
       <c r="E270" t="s">
         <v>8</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="2">
         <v>762766007</v>
       </c>
       <c r="G270" t="s">
@@ -8059,7 +8108,7 @@
       <c r="E271" t="s">
         <v>8</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="2">
         <v>736258006</v>
       </c>
       <c r="G271" t="s">
@@ -8079,7 +8128,7 @@
       <c r="E272" t="s">
         <v>8</v>
       </c>
-      <c r="F272">
+      <c r="F272" s="2">
         <v>736162008</v>
       </c>
       <c r="G272" t="s">
@@ -8099,7 +8148,7 @@
       <c r="E273" t="s">
         <v>8</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="2">
         <v>736159005</v>
       </c>
       <c r="G273" t="s">
@@ -8119,7 +8168,7 @@
       <c r="E274" t="s">
         <v>8</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="2">
         <v>736031006</v>
       </c>
       <c r="G274" t="s">
@@ -8139,7 +8188,7 @@
       <c r="E275" t="s">
         <v>8</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="2">
         <v>735979007</v>
       </c>
       <c r="G275" t="s">
@@ -8159,7 +8208,7 @@
       <c r="E276" t="s">
         <v>8</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="2">
         <v>735977009</v>
       </c>
       <c r="G276" t="s">
@@ -8179,7 +8228,7 @@
       <c r="E277" t="s">
         <v>8</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="2">
         <v>735971005</v>
       </c>
       <c r="G277" t="s">
@@ -8199,7 +8248,7 @@
       <c r="E278" t="s">
         <v>8</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="2">
         <v>735341005</v>
       </c>
       <c r="G278" t="s">
@@ -8219,7 +8268,7 @@
       <c r="E279" t="s">
         <v>8</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="2">
         <v>735248001</v>
       </c>
       <c r="G279" t="s">
@@ -8239,7 +8288,7 @@
       <c r="E280" t="s">
         <v>8</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="2">
         <v>735245003</v>
       </c>
       <c r="G280" t="s">
@@ -8259,7 +8308,7 @@
       <c r="E281" t="s">
         <v>8</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="2">
         <v>735215001</v>
       </c>
       <c r="G281" t="s">
@@ -8279,7 +8328,7 @@
       <c r="E282" t="s">
         <v>8</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="2">
         <v>735211005</v>
       </c>
       <c r="G282" t="s">
@@ -8299,7 +8348,7 @@
       <c r="E283" t="s">
         <v>8</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="2">
         <v>735053000</v>
       </c>
       <c r="G283" t="s">
@@ -8319,7 +8368,7 @@
       <c r="E284" t="s">
         <v>8</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="2">
         <v>735049002</v>
       </c>
       <c r="G284" t="s">
@@ -8339,7 +8388,7 @@
       <c r="E285" t="s">
         <v>8</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="2">
         <v>91936005</v>
       </c>
       <c r="G285" t="s">
@@ -8359,7 +8408,7 @@
       <c r="E286" t="s">
         <v>8</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="2">
         <v>91935009</v>
       </c>
       <c r="G286" t="s">
@@ -8379,7 +8428,7 @@
       <c r="E287" t="s">
         <v>8</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="2">
         <v>91598004</v>
       </c>
       <c r="G287" t="s">
@@ -8399,7 +8448,7 @@
       <c r="E288" t="s">
         <v>8</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="2">
         <v>89889006</v>
       </c>
       <c r="G288" t="s">
@@ -8419,7 +8468,7 @@
       <c r="E289" t="s">
         <v>8</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="2">
         <v>89811004</v>
       </c>
       <c r="G289" t="s">
@@ -8439,7 +8488,7 @@
       <c r="E290" t="s">
         <v>8</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="2">
         <v>83619009</v>
       </c>
       <c r="G290" t="s">
@@ -8459,7 +8508,7 @@
       <c r="E291" t="s">
         <v>8</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="2">
         <v>80237000</v>
       </c>
       <c r="G291" t="s">
@@ -8479,7 +8528,7 @@
       <c r="E292" t="s">
         <v>8</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="2">
         <v>9021002</v>
       </c>
       <c r="G292" t="s">
@@ -8499,7 +8548,7 @@
       <c r="E293" t="s">
         <v>8</v>
       </c>
-      <c r="F293">
+      <c r="F293" s="2">
         <v>7791007</v>
       </c>
       <c r="G293" t="s">
